--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H2">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I2">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J2">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N2">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q2">
-        <v>55.59497833917307</v>
+        <v>77.16050677475778</v>
       </c>
       <c r="R2">
-        <v>55.59497833917307</v>
+        <v>694.44456097282</v>
       </c>
       <c r="S2">
-        <v>0.2109933673311865</v>
+        <v>0.2514668889778943</v>
       </c>
       <c r="T2">
-        <v>0.2109933673311865</v>
+        <v>0.2514668889778943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H3">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I3">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J3">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N3">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q3">
-        <v>19.38129920621199</v>
+        <v>25.43442912427444</v>
       </c>
       <c r="R3">
-        <v>19.38129920621199</v>
+        <v>228.90986211847</v>
       </c>
       <c r="S3">
-        <v>0.07355566464697261</v>
+        <v>0.08289106736274569</v>
       </c>
       <c r="T3">
-        <v>0.07355566464697261</v>
+        <v>0.08289106736274571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H4">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I4">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J4">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q4">
-        <v>5.951978271228096</v>
+        <v>7.685902901431112</v>
       </c>
       <c r="R4">
-        <v>5.951978271228096</v>
+        <v>69.17312611288001</v>
       </c>
       <c r="S4">
-        <v>0.02258887358615256</v>
+        <v>0.02504843698410404</v>
       </c>
       <c r="T4">
-        <v>0.02258887358615256</v>
+        <v>0.02504843698410404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H5">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I5">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J5">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N5">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q5">
-        <v>125.4148460165251</v>
+        <v>137.5282361298207</v>
       </c>
       <c r="R5">
-        <v>125.4148460165251</v>
+        <v>1237.754125168386</v>
       </c>
       <c r="S5">
-        <v>0.4759728569891997</v>
+        <v>0.4482059428035918</v>
       </c>
       <c r="T5">
-        <v>0.4759728569891997</v>
+        <v>0.4482059428035919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H6">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I6">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J6">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N6">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q6">
-        <v>43.72162249471671</v>
+        <v>45.33345257362567</v>
       </c>
       <c r="R6">
-        <v>43.72162249471671</v>
+        <v>408.001073162631</v>
       </c>
       <c r="S6">
-        <v>0.1659317555456834</v>
+        <v>0.1477421904264359</v>
       </c>
       <c r="T6">
-        <v>0.1659317555456834</v>
+        <v>0.1477421904264359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H7">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I7">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J7">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q7">
-        <v>13.42686804958792</v>
+        <v>13.69908925280267</v>
       </c>
       <c r="R7">
-        <v>13.42686804958792</v>
+        <v>123.291803275224</v>
       </c>
       <c r="S7">
-        <v>0.0509574819008053</v>
+        <v>0.04464547344522813</v>
       </c>
       <c r="T7">
-        <v>0.0509574819008053</v>
+        <v>0.04464547344522814</v>
       </c>
     </row>
   </sheetData>
